--- a/original_data/2016/South West Crime Report 2016.xlsx
+++ b/original_data/2016/South West Crime Report 2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="315" windowWidth="19035" windowHeight="11715" tabRatio="845" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="19035" windowHeight="11715" tabRatio="845" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Data" sheetId="18" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="154">
   <si>
     <t>LOCATION</t>
   </si>
@@ -475,6 +475,21 @@
   <si>
     <t>TOTAL INCIDENTS - 25</t>
   </si>
+  <si>
+    <t>TOTAL INCIDENTS - 10</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 21</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 16</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 24</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 9</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -691,6 +706,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,22 +988,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,10 +1402,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
@@ -1401,7 +1437,7 @@
       </c>
       <c r="B2" s="20">
         <f>SUM(C2:J2)</f>
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="C2" s="18">
         <f>'Annual Totals'!C2</f>
@@ -1413,19 +1449,19 @@
       </c>
       <c r="E2" s="18">
         <f>'Annual Totals'!E2</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="18">
         <f>'Annual Totals'!F2</f>
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="G2" s="18">
         <f>'Annual Totals'!G2</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H2" s="18">
         <f>'Annual Totals'!H2</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I2" s="18">
         <f>'Annual Totals'!I2</f>
@@ -1433,7 +1469,7 @@
       </c>
       <c r="J2" s="25">
         <f>'Annual Totals'!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1487,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I32"/>
+      <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,10 +1504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -1498,10 +1534,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -1512,15 +1548,15 @@
       </c>
       <c r="E2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
@@ -1536,32 +1572,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2252,8 +2288,8 @@
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="8">
-        <v>0</v>
+      <c r="G28" s="34">
+        <v>1</v>
       </c>
       <c r="H28" s="8">
         <v>0</v>
@@ -2394,18 +2430,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2452,11 +2488,11 @@
       <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
+      <c r="E35" s="34">
+        <v>1</v>
+      </c>
+      <c r="F35" s="34">
+        <v>2</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
@@ -2519,8 +2555,8 @@
       <c r="E37" s="8">
         <v>0</v>
       </c>
-      <c r="F37" s="8">
-        <v>0</v>
+      <c r="F37" s="34">
+        <v>1</v>
       </c>
       <c r="G37" s="8">
         <v>0</v>
@@ -2647,8 +2683,8 @@
       <c r="E41" s="8">
         <v>0</v>
       </c>
-      <c r="F41" s="8">
-        <v>0</v>
+      <c r="F41" s="34">
+        <v>2</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -3095,8 +3131,8 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="F55" s="8">
-        <v>0</v>
+      <c r="F55" s="34">
+        <v>3</v>
       </c>
       <c r="G55" s="8">
         <v>0</v>
@@ -3223,8 +3259,8 @@
       <c r="E59" s="8">
         <v>0</v>
       </c>
-      <c r="F59" s="8">
-        <v>0</v>
+      <c r="F59" s="34">
+        <v>1</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -3432,18 +3468,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -3493,8 +3529,8 @@
       <c r="E68" s="8">
         <v>0</v>
       </c>
-      <c r="F68" s="8">
-        <v>0</v>
+      <c r="F68" s="34">
+        <v>1</v>
       </c>
       <c r="G68" s="8">
         <v>0</v>
@@ -3749,8 +3785,8 @@
       <c r="E76" s="8">
         <v>0</v>
       </c>
-      <c r="F76" s="8">
-        <v>0</v>
+      <c r="F76" s="34">
+        <v>1</v>
       </c>
       <c r="G76" s="8">
         <v>0</v>
@@ -3845,8 +3881,8 @@
       <c r="E79" s="8">
         <v>0</v>
       </c>
-      <c r="F79" s="8">
-        <v>0</v>
+      <c r="F79" s="34">
+        <v>1</v>
       </c>
       <c r="G79" s="8">
         <v>0</v>
@@ -4040,8 +4076,8 @@
       <c r="F85" s="8">
         <v>0</v>
       </c>
-      <c r="G85" s="8">
-        <v>0</v>
+      <c r="G85" s="34">
+        <v>1</v>
       </c>
       <c r="H85" s="8">
         <v>0</v>
@@ -4133,8 +4169,8 @@
       <c r="E88" s="8">
         <v>0</v>
       </c>
-      <c r="F88" s="8">
-        <v>0</v>
+      <c r="F88" s="34">
+        <v>1</v>
       </c>
       <c r="G88" s="8">
         <v>0</v>
@@ -4278,8 +4314,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -4311,7 +4347,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C94" s="23">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -4323,15 +4359,15 @@
       </c>
       <c r="E94" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="23">
         <f>SUM(F8:F92)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" s="23">
         <f t="shared" si="2"/>
@@ -4366,7 +4402,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72:J89"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,10 +4419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -4413,10 +4449,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -4427,19 +4463,19 @@
       </c>
       <c r="E2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="23">
         <f t="shared" si="0"/>
@@ -4451,32 +4487,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4754,8 +4790,8 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
+      <c r="H15" s="35">
+        <v>1</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
@@ -4940,14 +4976,14 @@
       <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="8">
-        <v>0</v>
+      <c r="F21" s="35">
+        <v>1</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
-        <v>0</v>
+      <c r="H21" s="35">
+        <v>1</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
@@ -5132,8 +5168,8 @@
       <c r="E27" s="8">
         <v>0</v>
       </c>
-      <c r="F27" s="8">
-        <v>0</v>
+      <c r="F27" s="35">
+        <v>1</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
@@ -5164,8 +5200,8 @@
       <c r="E28" s="8">
         <v>0</v>
       </c>
-      <c r="F28" s="8">
-        <v>0</v>
+      <c r="F28" s="35">
+        <v>4</v>
       </c>
       <c r="G28" s="8">
         <v>0</v>
@@ -5292,8 +5328,8 @@
       <c r="E32" s="8">
         <v>0</v>
       </c>
-      <c r="F32" s="8">
-        <v>0</v>
+      <c r="F32" s="35">
+        <v>1</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
@@ -5309,18 +5345,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -5370,8 +5406,8 @@
       <c r="E35" s="8">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
+      <c r="F35" s="35">
+        <v>1</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
@@ -5594,8 +5630,8 @@
       <c r="E42" s="8">
         <v>0</v>
       </c>
-      <c r="F42" s="8">
-        <v>0</v>
+      <c r="F42" s="35">
+        <v>1</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -5626,8 +5662,8 @@
       <c r="E43" s="8">
         <v>0</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
+      <c r="F43" s="35">
+        <v>1</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
@@ -5754,8 +5790,8 @@
       <c r="E47" s="8">
         <v>0</v>
       </c>
-      <c r="F47" s="8">
-        <v>0</v>
+      <c r="F47" s="35">
+        <v>1</v>
       </c>
       <c r="G47" s="8">
         <v>0</v>
@@ -6010,8 +6046,8 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="F55" s="8">
-        <v>0</v>
+      <c r="F55" s="35">
+        <v>1</v>
       </c>
       <c r="G55" s="8">
         <v>0</v>
@@ -6077,8 +6113,8 @@
       <c r="F57" s="8">
         <v>0</v>
       </c>
-      <c r="G57" s="8">
-        <v>0</v>
+      <c r="G57" s="35">
+        <v>1</v>
       </c>
       <c r="H57" s="8">
         <v>0</v>
@@ -6347,18 +6383,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -6408,8 +6444,8 @@
       <c r="E68" s="8">
         <v>0</v>
       </c>
-      <c r="F68" s="8">
-        <v>0</v>
+      <c r="F68" s="35">
+        <v>1</v>
       </c>
       <c r="G68" s="8">
         <v>0</v>
@@ -6760,8 +6796,8 @@
       <c r="E79" s="8">
         <v>0</v>
       </c>
-      <c r="F79" s="8">
-        <v>0</v>
+      <c r="F79" s="35">
+        <v>1</v>
       </c>
       <c r="G79" s="8">
         <v>0</v>
@@ -6920,14 +6956,14 @@
       <c r="E84" s="8">
         <v>0</v>
       </c>
-      <c r="F84" s="8">
-        <v>0</v>
+      <c r="F84" s="35">
+        <v>4</v>
       </c>
       <c r="G84" s="8">
         <v>0</v>
       </c>
-      <c r="H84" s="8">
-        <v>0</v>
+      <c r="H84" s="35">
+        <v>1</v>
       </c>
       <c r="I84" s="8">
         <v>0</v>
@@ -6949,8 +6985,8 @@
       <c r="D85" s="8">
         <v>0</v>
       </c>
-      <c r="E85" s="8">
-        <v>0</v>
+      <c r="E85" s="35">
+        <v>1</v>
       </c>
       <c r="F85" s="8">
         <v>0</v>
@@ -7115,8 +7151,8 @@
       <c r="F90" s="8">
         <v>0</v>
       </c>
-      <c r="G90" s="8">
-        <v>0</v>
+      <c r="G90" s="35">
+        <v>1</v>
       </c>
       <c r="H90" s="8">
         <v>0</v>
@@ -7193,8 +7229,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -7226,7 +7262,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C94" s="23">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -7238,19 +7274,19 @@
       </c>
       <c r="E94" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="23">
         <f>SUM(F8:F92)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94" s="23">
         <f t="shared" si="2"/>
@@ -7281,7 +7317,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:I29"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7298,10 +7334,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -7328,10 +7364,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -7342,11 +7378,11 @@
       </c>
       <c r="E2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
@@ -7354,7 +7390,7 @@
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="23">
         <f t="shared" si="0"/>
@@ -7366,32 +7402,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -7631,8 +7667,8 @@
       <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
+      <c r="F14" s="36">
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -8224,18 +8260,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -8285,8 +8321,8 @@
       <c r="E35" s="8">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
+      <c r="F35" s="36">
+        <v>3</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
@@ -8867,8 +8903,8 @@
       <c r="G53" s="8">
         <v>0</v>
       </c>
-      <c r="H53" s="8">
-        <v>0</v>
+      <c r="H53" s="36">
+        <v>1</v>
       </c>
       <c r="I53" s="8">
         <v>0</v>
@@ -8925,8 +8961,8 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="F55" s="8">
-        <v>0</v>
+      <c r="F55" s="36">
+        <v>2</v>
       </c>
       <c r="G55" s="8">
         <v>0</v>
@@ -9085,8 +9121,8 @@
       <c r="E60" s="8">
         <v>0</v>
       </c>
-      <c r="F60" s="8">
-        <v>0</v>
+      <c r="F60" s="36">
+        <v>1</v>
       </c>
       <c r="G60" s="8">
         <v>0</v>
@@ -9262,18 +9298,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -9736,8 +9772,8 @@
       <c r="D81" s="8">
         <v>0</v>
       </c>
-      <c r="E81" s="8">
-        <v>0</v>
+      <c r="E81" s="36">
+        <v>1</v>
       </c>
       <c r="F81" s="8">
         <v>0</v>
@@ -10108,8 +10144,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -10141,7 +10177,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C94" s="23">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -10153,11 +10189,11 @@
       </c>
       <c r="E94" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="23">
         <f>SUM(F8:F92)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
@@ -10165,7 +10201,7 @@
       </c>
       <c r="H94" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="23">
         <f t="shared" si="2"/>
@@ -10196,7 +10232,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="E84:G87"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10213,10 +10249,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -10243,10 +10279,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -10257,19 +10293,19 @@
       </c>
       <c r="E2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="23">
         <f t="shared" si="0"/>
@@ -10281,32 +10317,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -11122,8 +11158,8 @@
       <c r="E32" s="8">
         <v>0</v>
       </c>
-      <c r="F32" s="8">
-        <v>0</v>
+      <c r="F32" s="37">
+        <v>2</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
@@ -11139,18 +11175,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -11200,14 +11236,14 @@
       <c r="E35" s="8">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
+      <c r="F35" s="37">
+        <v>1</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
-        <v>0</v>
+      <c r="H35" s="37">
+        <v>1</v>
       </c>
       <c r="I35" s="8">
         <v>0</v>
@@ -11843,8 +11879,8 @@
       <c r="F55" s="8">
         <v>0</v>
       </c>
-      <c r="G55" s="8">
-        <v>0</v>
+      <c r="G55" s="37">
+        <v>1</v>
       </c>
       <c r="H55" s="8">
         <v>0</v>
@@ -11904,8 +11940,8 @@
       <c r="E57" s="8">
         <v>0</v>
       </c>
-      <c r="F57" s="8">
-        <v>0</v>
+      <c r="F57" s="37">
+        <v>1</v>
       </c>
       <c r="G57" s="8">
         <v>0</v>
@@ -12093,8 +12129,8 @@
       <c r="D63" s="8">
         <v>0</v>
       </c>
-      <c r="E63" s="8">
-        <v>0</v>
+      <c r="E63" s="37">
+        <v>1</v>
       </c>
       <c r="F63" s="8">
         <v>0</v>
@@ -12177,18 +12213,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -12430,8 +12466,8 @@
       <c r="E74" s="8">
         <v>0</v>
       </c>
-      <c r="F74" s="8">
-        <v>0</v>
+      <c r="F74" s="37">
+        <v>1</v>
       </c>
       <c r="G74" s="8">
         <v>0</v>
@@ -12494,8 +12530,8 @@
       <c r="E76" s="8">
         <v>0</v>
       </c>
-      <c r="F76" s="8">
-        <v>0</v>
+      <c r="F76" s="37">
+        <v>1</v>
       </c>
       <c r="G76" s="8">
         <v>0</v>
@@ -12596,8 +12632,8 @@
       <c r="G79" s="8">
         <v>0</v>
       </c>
-      <c r="H79" s="8">
-        <v>0</v>
+      <c r="H79" s="37">
+        <v>1</v>
       </c>
       <c r="I79" s="8">
         <v>0</v>
@@ -12750,8 +12786,8 @@
       <c r="E84" s="8">
         <v>0</v>
       </c>
-      <c r="F84" s="8">
-        <v>0</v>
+      <c r="F84" s="37">
+        <v>3</v>
       </c>
       <c r="G84" s="8">
         <v>0</v>
@@ -13023,8 +13059,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -13056,7 +13092,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C94" s="23">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -13068,19 +13104,19 @@
       </c>
       <c r="E94" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="23">
         <f>SUM(F8:F92)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" s="23">
         <f t="shared" si="2"/>
@@ -13110,8 +13146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:J66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13128,10 +13164,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -13158,10 +13194,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -13176,11 +13212,11 @@
       </c>
       <c r="F2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
@@ -13192,36 +13228,36 @@
       </c>
       <c r="J2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -13921,8 +13957,8 @@
       <c r="I28" s="8">
         <v>0</v>
       </c>
-      <c r="J28" s="8">
-        <v>0</v>
+      <c r="J28" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14054,18 +14090,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -14115,8 +14151,8 @@
       <c r="E35" s="8">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
+      <c r="F35" s="38">
+        <v>2</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
@@ -14307,8 +14343,8 @@
       <c r="E41" s="8">
         <v>0</v>
       </c>
-      <c r="F41" s="8">
-        <v>0</v>
+      <c r="F41" s="38">
+        <v>3</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -14371,11 +14407,11 @@
       <c r="E43" s="8">
         <v>0</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
+      <c r="F43" s="38">
+        <v>1</v>
+      </c>
+      <c r="G43" s="38">
+        <v>1</v>
       </c>
       <c r="H43" s="8">
         <v>0</v>
@@ -14723,8 +14759,8 @@
       <c r="E54" s="8">
         <v>0</v>
       </c>
-      <c r="F54" s="8">
-        <v>0</v>
+      <c r="F54" s="38">
+        <v>1</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -14755,11 +14791,11 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0</v>
+      <c r="F55" s="38">
+        <v>1</v>
+      </c>
+      <c r="G55" s="38">
+        <v>1</v>
       </c>
       <c r="H55" s="8">
         <v>0</v>
@@ -15092,18 +15128,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -15156,8 +15192,8 @@
       <c r="F68" s="8">
         <v>0</v>
       </c>
-      <c r="G68" s="8">
-        <v>0</v>
+      <c r="G68" s="38">
+        <v>1</v>
       </c>
       <c r="H68" s="8">
         <v>0</v>
@@ -15508,8 +15544,8 @@
       <c r="F79" s="8">
         <v>0</v>
       </c>
-      <c r="G79" s="8">
-        <v>0</v>
+      <c r="G79" s="38">
+        <v>1</v>
       </c>
       <c r="H79" s="8">
         <v>0</v>
@@ -15665,8 +15701,8 @@
       <c r="E84" s="8">
         <v>0</v>
       </c>
-      <c r="F84" s="8">
-        <v>0</v>
+      <c r="F84" s="38">
+        <v>1</v>
       </c>
       <c r="G84" s="8">
         <v>0</v>
@@ -15938,8 +15974,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -15971,7 +16007,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C94" s="23">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -15987,11 +16023,11 @@
       </c>
       <c r="F94" s="23">
         <f>SUM(F8:F92)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" s="23">
         <f t="shared" si="2"/>
@@ -16003,7 +16039,7 @@
       </c>
       <c r="J94" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16043,10 +16079,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
@@ -16073,10 +16109,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="17">
         <f>C94</f>
         <v>1</v>
@@ -16087,19 +16123,19 @@
       </c>
       <c r="E2" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" si="0"/>
@@ -16107,36 +16143,36 @@
       </c>
       <c r="J2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -16311,7 +16347,7 @@
       </c>
       <c r="F11" s="8">
         <f>SUM(JANUARY:DECEMBER!F11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
         <f>SUM(JANUARY:DECEMBER!G11)</f>
@@ -16327,7 +16363,7 @@
       </c>
       <c r="J11" s="8">
         <f>SUM(JANUARY:DECEMBER!J11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16429,7 +16465,7 @@
       </c>
       <c r="F14" s="8">
         <f>SUM(JANUARY:DECEMBER!F14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(JANUARY:DECEMBER!G14)</f>
@@ -16469,7 +16505,7 @@
       </c>
       <c r="F15" s="8">
         <f>SUM(JANUARY:DECEMBER!F15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <f>SUM(JANUARY:DECEMBER!G15)</f>
@@ -16477,7 +16513,7 @@
       </c>
       <c r="H15" s="8">
         <f>SUM(JANUARY:DECEMBER!H15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="8">
         <f>SUM(JANUARY:DECEMBER!I15)</f>
@@ -16709,7 +16745,7 @@
       </c>
       <c r="F21" s="8">
         <f>SUM(JANUARY:DECEMBER!F21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="8">
         <f>SUM(JANUARY:DECEMBER!G21)</f>
@@ -16717,7 +16753,7 @@
       </c>
       <c r="H21" s="8">
         <f>SUM(JANUARY:DECEMBER!H21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="8">
         <f>SUM(JANUARY:DECEMBER!I21)</f>
@@ -16789,7 +16825,7 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(JANUARY:DECEMBER!F23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="8">
         <f>SUM(JANUARY:DECEMBER!G23)</f>
@@ -16949,7 +16985,7 @@
       </c>
       <c r="F27" s="8">
         <f>SUM(JANUARY:DECEMBER!F27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="8">
         <f>SUM(JANUARY:DECEMBER!G27)</f>
@@ -16989,11 +17025,11 @@
       </c>
       <c r="F28" s="8">
         <f>SUM(JANUARY:DECEMBER!F28)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G28" s="8">
         <f>SUM(JANUARY:DECEMBER!G28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="8">
         <f>SUM(JANUARY:DECEMBER!H28)</f>
@@ -17005,7 +17041,7 @@
       </c>
       <c r="J28" s="8">
         <f>SUM(JANUARY:DECEMBER!J28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17149,7 +17185,7 @@
       </c>
       <c r="F32" s="8">
         <f>SUM(JANUARY:DECEMBER!F32)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="8">
         <f>SUM(JANUARY:DECEMBER!G32)</f>
@@ -17157,7 +17193,7 @@
       </c>
       <c r="H32" s="8">
         <f>SUM(JANUARY:DECEMBER!H32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="8">
         <f>SUM(JANUARY:DECEMBER!I32)</f>
@@ -17169,18 +17205,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -17231,11 +17267,11 @@
       </c>
       <c r="E35" s="10">
         <f>SUM(JANUARY:DECEMBER!E35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="10">
         <f>SUM(JANUARY:DECEMBER!F35)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10">
         <f>SUM(JANUARY:DECEMBER!G35)</f>
@@ -17243,7 +17279,7 @@
       </c>
       <c r="H35" s="10">
         <f>SUM(JANUARY:DECEMBER!H35)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" s="10">
         <f>SUM(JANUARY:DECEMBER!I35)</f>
@@ -17315,7 +17351,7 @@
       </c>
       <c r="F37" s="10">
         <f>SUM(JANUARY:DECEMBER!F37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="10">
         <f>SUM(JANUARY:DECEMBER!G37)</f>
@@ -17475,7 +17511,7 @@
       </c>
       <c r="F41" s="10">
         <f>SUM(JANUARY:DECEMBER!F41)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G41" s="10">
         <f>SUM(JANUARY:DECEMBER!G41)</f>
@@ -17515,7 +17551,7 @@
       </c>
       <c r="F42" s="10">
         <f>SUM(JANUARY:DECEMBER!F42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(JANUARY:DECEMBER!G42)</f>
@@ -17555,11 +17591,11 @@
       </c>
       <c r="F43" s="10">
         <f>SUM(JANUARY:DECEMBER!F43)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G43" s="10">
         <f>SUM(JANUARY:DECEMBER!G43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="10">
         <f>SUM(JANUARY:DECEMBER!H43)</f>
@@ -17715,7 +17751,7 @@
       </c>
       <c r="F47" s="10">
         <f>SUM(JANUARY:DECEMBER!F47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="10">
         <f>SUM(JANUARY:DECEMBER!G47)</f>
@@ -17915,7 +17951,7 @@
       </c>
       <c r="F52" s="10">
         <f>SUM(JANUARY:DECEMBER!F52)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10">
         <f>SUM(JANUARY:DECEMBER!G52)</f>
@@ -17963,7 +17999,7 @@
       </c>
       <c r="H53" s="10">
         <f>SUM(JANUARY:DECEMBER!H53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="10">
         <f>SUM(JANUARY:DECEMBER!I53)</f>
@@ -17995,7 +18031,7 @@
       </c>
       <c r="F54" s="10">
         <f>SUM(JANUARY:DECEMBER!F54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" s="10">
         <f>SUM(JANUARY:DECEMBER!G54)</f>
@@ -18035,11 +18071,11 @@
       </c>
       <c r="F55" s="10">
         <f>SUM(JANUARY:DECEMBER!F55)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G55" s="10">
         <f>SUM(JANUARY:DECEMBER!G55)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" s="10">
         <f>SUM(JANUARY:DECEMBER!H55)</f>
@@ -18115,11 +18151,11 @@
       </c>
       <c r="F57" s="10">
         <f>SUM(JANUARY:DECEMBER!F57)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="10">
         <f>SUM(JANUARY:DECEMBER!G57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="10">
         <f>SUM(JANUARY:DECEMBER!H57)</f>
@@ -18155,7 +18191,7 @@
       </c>
       <c r="F58" s="10">
         <f>SUM(JANUARY:DECEMBER!F58)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="10">
         <f>SUM(JANUARY:DECEMBER!G58)</f>
@@ -18195,7 +18231,7 @@
       </c>
       <c r="F59" s="10">
         <f>SUM(JANUARY:DECEMBER!F59)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G59" s="10">
         <f>SUM(JANUARY:DECEMBER!G59)</f>
@@ -18235,7 +18271,7 @@
       </c>
       <c r="F60" s="10">
         <f>SUM(JANUARY:DECEMBER!F60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="10">
         <f>SUM(JANUARY:DECEMBER!G60)</f>
@@ -18351,7 +18387,7 @@
       </c>
       <c r="E63" s="10">
         <f>SUM(JANUARY:DECEMBER!E63)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="10">
         <f>SUM(JANUARY:DECEMBER!F63)</f>
@@ -18455,18 +18491,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -18521,11 +18557,11 @@
       </c>
       <c r="F68" s="8">
         <f>SUM(JANUARY:DECEMBER!F68)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G68" s="8">
         <f>SUM(JANUARY:DECEMBER!G68)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="8">
         <f>SUM(JANUARY:DECEMBER!H68)</f>
@@ -18761,7 +18797,7 @@
       </c>
       <c r="F74" s="8">
         <f>SUM(JANUARY:DECEMBER!F74)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="8">
         <f>SUM(JANUARY:DECEMBER!G74)</f>
@@ -18841,7 +18877,7 @@
       </c>
       <c r="F76" s="8">
         <f>SUM(JANUARY:DECEMBER!F76)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G76" s="8">
         <f>SUM(JANUARY:DECEMBER!G76)</f>
@@ -18961,15 +18997,15 @@
       </c>
       <c r="F79" s="8">
         <f>SUM(JANUARY:DECEMBER!F79)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" s="8">
         <f>SUM(JANUARY:DECEMBER!G79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" s="8">
         <f>SUM(JANUARY:DECEMBER!H79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="8">
         <f>SUM(JANUARY:DECEMBER!I79)</f>
@@ -19037,7 +19073,7 @@
       </c>
       <c r="E81" s="8">
         <f>SUM(JANUARY:DECEMBER!E81)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="8">
         <f>SUM(JANUARY:DECEMBER!F81)</f>
@@ -19157,11 +19193,11 @@
       </c>
       <c r="E84" s="8">
         <f>SUM(JANUARY:DECEMBER!E84)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="8">
         <f>SUM(JANUARY:DECEMBER!F84)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G84" s="8">
         <f>SUM(JANUARY:DECEMBER!G84)</f>
@@ -19169,7 +19205,7 @@
       </c>
       <c r="H84" s="8">
         <f>SUM(JANUARY:DECEMBER!H84)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" s="8">
         <f>SUM(JANUARY:DECEMBER!I84)</f>
@@ -19197,15 +19233,15 @@
       </c>
       <c r="E85" s="8">
         <f>SUM(JANUARY:DECEMBER!E85)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="8">
         <f>SUM(JANUARY:DECEMBER!F85)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="8">
         <f>SUM(JANUARY:DECEMBER!G85)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" s="8">
         <f>SUM(JANUARY:DECEMBER!H85)</f>
@@ -19321,7 +19357,7 @@
       </c>
       <c r="F88" s="8">
         <f>SUM(JANUARY:DECEMBER!F88)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="8">
         <f>SUM(JANUARY:DECEMBER!G88)</f>
@@ -19405,7 +19441,7 @@
       </c>
       <c r="G90" s="8">
         <f>SUM(JANUARY:DECEMBER!G90)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="8">
         <f>SUM(JANUARY:DECEMBER!H90)</f>
@@ -19441,7 +19477,7 @@
       </c>
       <c r="F91" s="8">
         <f>SUM(JANUARY:DECEMBER!F91)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="8">
         <f>SUM(JANUARY:DECEMBER!G91)</f>
@@ -19501,8 +19537,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="16" t="s">
         <v>2</v>
       </c>
@@ -19534,7 +19570,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="C94" s="17">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -19546,19 +19582,19 @@
       </c>
       <c r="E94" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F94" s="17">
         <f>SUM(F8:F92)</f>
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="G94" s="17">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H94" s="17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I94" s="17">
         <f t="shared" si="2"/>
@@ -19566,7 +19602,7 @@
       </c>
       <c r="J94" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -19605,10 +19641,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
@@ -19635,10 +19671,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="3">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>1</v>
@@ -19686,32 +19722,32 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -20544,18 +20580,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -21582,18 +21618,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -22428,8 +22464,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="13" t="s">
         <v>2</v>
       </c>
@@ -22533,10 +22569,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -22563,10 +22599,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -22601,32 +22637,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -23459,18 +23495,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -24497,18 +24533,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -25343,8 +25379,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -25448,10 +25484,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -25478,10 +25514,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -25516,32 +25552,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -26374,18 +26410,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -27412,18 +27448,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -28258,8 +28294,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -28363,10 +28399,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -28393,10 +28429,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -28431,32 +28467,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -29289,18 +29325,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -30327,18 +30363,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -31173,8 +31209,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -31260,7 +31296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -31278,10 +31314,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -31308,10 +31344,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -31346,32 +31382,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -32204,18 +32240,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -33242,18 +33278,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -34088,8 +34124,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -34176,7 +34212,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:I84"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34193,10 +34229,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -34223,10 +34259,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -34237,19 +34273,19 @@
       </c>
       <c r="E2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="23">
         <f t="shared" si="0"/>
@@ -34257,36 +34293,36 @@
       </c>
       <c r="J2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -34444,8 +34480,8 @@
       <c r="I11" s="8">
         <v>0</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
+      <c r="J11" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -34977,8 +35013,8 @@
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="8">
-        <v>0</v>
+      <c r="G28" s="32">
+        <v>1</v>
       </c>
       <c r="H28" s="8">
         <v>0</v>
@@ -35108,8 +35144,8 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
-        <v>0</v>
+      <c r="H32" s="32">
+        <v>1</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
@@ -35119,18 +35155,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -35916,8 +35952,8 @@
       <c r="E58" s="8">
         <v>0</v>
       </c>
-      <c r="F58" s="8">
-        <v>0</v>
+      <c r="F58" s="32">
+        <v>1</v>
       </c>
       <c r="G58" s="8">
         <v>0</v>
@@ -36157,18 +36193,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -36218,8 +36254,8 @@
       <c r="E68" s="8">
         <v>0</v>
       </c>
-      <c r="F68" s="8">
-        <v>0</v>
+      <c r="F68" s="32">
+        <v>1</v>
       </c>
       <c r="G68" s="8">
         <v>0</v>
@@ -36570,11 +36606,11 @@
       <c r="E79" s="8">
         <v>0</v>
       </c>
-      <c r="F79" s="8">
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
-        <v>0</v>
+      <c r="F79" s="32">
+        <v>1</v>
+      </c>
+      <c r="G79" s="32">
+        <v>1</v>
       </c>
       <c r="H79" s="8">
         <v>0</v>
@@ -36727,11 +36763,11 @@
       <c r="D84" s="8">
         <v>0</v>
       </c>
-      <c r="E84" s="8">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <v>0</v>
+      <c r="E84" s="32">
+        <v>1</v>
+      </c>
+      <c r="F84" s="32">
+        <v>1</v>
       </c>
       <c r="G84" s="8">
         <v>0</v>
@@ -36762,8 +36798,8 @@
       <c r="E85" s="8">
         <v>0</v>
       </c>
-      <c r="F85" s="8">
-        <v>0</v>
+      <c r="F85" s="32">
+        <v>1</v>
       </c>
       <c r="G85" s="8">
         <v>0</v>
@@ -37003,8 +37039,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -37036,7 +37072,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C94" s="23">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -37048,19 +37084,19 @@
       </c>
       <c r="E94" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="23">
         <f>SUM(F8:F92)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="23">
         <f t="shared" si="2"/>
@@ -37068,7 +37104,7 @@
       </c>
       <c r="J94" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -37091,7 +37127,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37108,10 +37144,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
@@ -37138,10 +37174,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="23">
         <f t="shared" ref="C2:J2" si="0">C94</f>
         <v>0</v>
@@ -37156,15 +37192,15 @@
       </c>
       <c r="F2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="23">
         <f t="shared" si="0"/>
@@ -37176,32 +37212,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -37347,8 +37383,8 @@
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
+      <c r="F11" s="33">
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -37473,8 +37509,8 @@
       <c r="E15" s="8">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
-        <v>0</v>
+      <c r="F15" s="33">
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -37729,8 +37765,8 @@
       <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
+      <c r="F23" s="33">
+        <v>1</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -37889,8 +37925,8 @@
       <c r="E28" s="8">
         <v>0</v>
       </c>
-      <c r="F28" s="8">
-        <v>0</v>
+      <c r="F28" s="33">
+        <v>3</v>
       </c>
       <c r="G28" s="8">
         <v>0</v>
@@ -38034,18 +38070,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -38095,14 +38131,14 @@
       <c r="E35" s="8">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
+      <c r="F35" s="33">
+        <v>1</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
-        <v>0</v>
+      <c r="H35" s="33">
+        <v>1</v>
       </c>
       <c r="I35" s="10">
         <v>0</v>
@@ -38287,8 +38323,8 @@
       <c r="E41" s="8">
         <v>0</v>
       </c>
-      <c r="F41" s="8">
-        <v>0</v>
+      <c r="F41" s="33">
+        <v>1</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -38351,8 +38387,8 @@
       <c r="E43" s="8">
         <v>0</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
+      <c r="F43" s="33">
+        <v>1</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
@@ -38639,8 +38675,8 @@
       <c r="E52" s="8">
         <v>0</v>
       </c>
-      <c r="F52" s="8">
-        <v>0</v>
+      <c r="F52" s="33">
+        <v>1</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -38735,8 +38771,8 @@
       <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="F55" s="8">
-        <v>0</v>
+      <c r="F55" s="33">
+        <v>2</v>
       </c>
       <c r="G55" s="8">
         <v>0</v>
@@ -38863,8 +38899,8 @@
       <c r="E59" s="8">
         <v>0</v>
       </c>
-      <c r="F59" s="8">
-        <v>0</v>
+      <c r="F59" s="33">
+        <v>1</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -38895,8 +38931,8 @@
       <c r="E60" s="8">
         <v>0</v>
       </c>
-      <c r="F60" s="8">
-        <v>0</v>
+      <c r="F60" s="33">
+        <v>1</v>
       </c>
       <c r="G60" s="8">
         <v>0</v>
@@ -39072,18 +39108,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -39389,8 +39425,8 @@
       <c r="E76" s="8">
         <v>0</v>
       </c>
-      <c r="F76" s="8">
-        <v>0</v>
+      <c r="F76" s="33">
+        <v>3</v>
       </c>
       <c r="G76" s="8">
         <v>0</v>
@@ -39645,8 +39681,8 @@
       <c r="E84" s="8">
         <v>0</v>
       </c>
-      <c r="F84" s="8">
-        <v>0</v>
+      <c r="F84" s="33">
+        <v>1</v>
       </c>
       <c r="G84" s="8">
         <v>0</v>
@@ -39680,8 +39716,8 @@
       <c r="F85" s="8">
         <v>0</v>
       </c>
-      <c r="G85" s="8">
-        <v>0</v>
+      <c r="G85" s="33">
+        <v>1</v>
       </c>
       <c r="H85" s="8">
         <v>0</v>
@@ -39869,8 +39905,8 @@
       <c r="E91" s="8">
         <v>0</v>
       </c>
-      <c r="F91" s="8">
-        <v>0</v>
+      <c r="F91" s="33">
+        <v>1</v>
       </c>
       <c r="G91" s="8">
         <v>0</v>
@@ -39918,8 +39954,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="22" t="s">
         <v>2</v>
       </c>
@@ -39951,7 +39987,7 @@
       </c>
       <c r="B94" s="24">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C94" s="23">
         <f t="shared" ref="C94:E94" si="1">SUM(C8:C92)</f>
@@ -39967,15 +40003,15 @@
       </c>
       <c r="F94" s="23">
         <f>SUM(F8:F92)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" ref="G94:J94" si="2">SUM(G8:G92)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="23">
         <f t="shared" si="2"/>
